--- a/test/writer_output/Zimm-Lundberg Analysis.xlsx
+++ b/test/writer_output/Zimm-Lundberg Analysis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Membrane Libraries\SorptionModels.jl\test\writer_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104B81AE-E59C-4F92-AC56-DA89B4047389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Zimm Lundberg Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Zimm Lundberg Analysis" r:id="rId4" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Step</t>
   </si>
@@ -415,40 +415,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE54D5C-34DF-4812-9FEF-0615F2618552}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC941D83-FB1F-4789-8B31-0D5710979F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,130 +475,130 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.8087234999999996E-2</v>
+        <v>0.068087235</v>
       </c>
       <c r="C2">
-        <v>6.8087234999999997E-5</v>
+        <v>6.8087235e-5</v>
       </c>
       <c r="D2">
-        <v>3.226808854236977E-3</v>
+        <v>0.0032268088542369722</v>
       </c>
       <c r="E2">
-        <v>3.5872568630427031E-5</v>
+        <v>3.587256863042699e-5</v>
       </c>
       <c r="F2">
-        <v>21.100485983419105</v>
+        <v>21.100485983419137</v>
       </c>
       <c r="G2">
-        <v>0.23369462664814106</v>
+        <v>0.23369462664814147</v>
       </c>
       <c r="H2">
-        <v>11.480151185701175</v>
+        <v>11.480151185701061</v>
       </c>
       <c r="I2">
-        <v>0.11645410511167481</v>
+        <v>0.11645410511167409</v>
       </c>
       <c r="J2">
-        <v>-12.443106932207176</v>
+        <v>-12.443106932207062</v>
       </c>
       <c r="K2">
-        <v>0.11648899821958839</v>
+        <v>0.11648899821958766</v>
       </c>
       <c r="L2">
-        <v>0.95984847237693638</v>
+        <v>0.9598484723769368</v>
       </c>
       <c r="M2">
-        <v>7.6840294384720691E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.684029438471932e-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.12905162100000001</v>
+        <v>0.129051621</v>
       </c>
       <c r="C3">
-        <v>1.2905162100000002E-4</v>
+        <v>0.00012905162100000002</v>
       </c>
       <c r="D3">
-        <v>5.9298211126222683E-3</v>
+        <v>0.005929821112622263</v>
       </c>
       <c r="E3">
-        <v>6.5732543358645133E-5</v>
+        <v>6.57325433586451e-5</v>
       </c>
       <c r="F3">
-        <v>21.763155843824634</v>
+        <v>21.763155843824652</v>
       </c>
       <c r="G3">
-        <v>0.24038258203029692</v>
+        <v>0.2403825820302972</v>
       </c>
       <c r="H3">
-        <v>10.259421830109375</v>
+        <v>10.259421830109318</v>
       </c>
       <c r="I3">
-        <v>0.10291491169783658</v>
+        <v>0.10291491169783408</v>
       </c>
       <c r="J3">
-        <v>-11.198585293937894</v>
+        <v>-11.198585293937837</v>
       </c>
       <c r="K3">
-        <v>0.10297782848582684</v>
+        <v>0.10297782848582437</v>
       </c>
       <c r="L3">
-        <v>0.93359439249250586</v>
+        <v>0.9335943924925062</v>
       </c>
       <c r="M3">
-        <v>1.3162243368318319E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.00013162243368319357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.18505402200000001</v>
+        <v>0.185054022</v>
       </c>
       <c r="C4">
-        <v>1.8505402200000003E-4</v>
+        <v>0.00018505402200000003</v>
       </c>
       <c r="D4">
-        <v>8.2960398143189628E-3</v>
+        <v>0.008296039814318963</v>
       </c>
       <c r="E4">
-        <v>9.1734474469712312E-5</v>
+        <v>9.173447446971228e-5</v>
       </c>
       <c r="F4">
-        <v>22.306308328052719</v>
+        <v>22.30630832805272</v>
       </c>
       <c r="G4">
-        <v>0.24579753154696657</v>
+        <v>0.2457975315469665</v>
       </c>
       <c r="H4">
-        <v>9.1380495114523228</v>
+        <v>9.13804951145228</v>
       </c>
       <c r="I4">
-        <v>9.0498663895279427E-2</v>
+        <v>0.09049866389527907</v>
       </c>
       <c r="J4">
-        <v>-10.062239888880097</v>
+        <v>-10.062239888880054</v>
       </c>
       <c r="K4">
-        <v>9.0585399784624474E-2</v>
+        <v>0.09058539978462413</v>
       </c>
       <c r="L4">
-        <v>0.91652325726062234</v>
+        <v>0.9165232572606227</v>
       </c>
       <c r="M4">
-        <v>1.7513807868122611E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.00017513807868122495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -620,81 +606,81 @@
         <v>0.226470588</v>
       </c>
       <c r="C5">
-        <v>2.26470588E-4</v>
+        <v>0.000226470588</v>
       </c>
       <c r="D5">
-        <v>9.9909374804771842E-3</v>
+        <v>0.009990937480477179</v>
       </c>
       <c r="E5">
-        <v>1.1028251952444114E-4</v>
+        <v>0.0001102825195244411</v>
       </c>
       <c r="F5">
-        <v>22.667601357984214</v>
+        <v>22.667601357984225</v>
       </c>
       <c r="G5">
-        <v>0.24935299739643835</v>
+        <v>0.24935299739643849</v>
       </c>
       <c r="H5">
-        <v>8.3087388066089432</v>
+        <v>8.308738806608915</v>
       </c>
       <c r="I5">
-        <v>8.1334723925100591E-2</v>
+        <v>0.08133472392510059</v>
       </c>
       <c r="J5">
-        <v>-9.2257267166504988</v>
+        <v>-9.22572671665047</v>
       </c>
       <c r="K5">
-        <v>8.1438082702993284E-2</v>
+        <v>0.08143808270299328</v>
       </c>
       <c r="L5">
-        <v>0.9078263411619768</v>
+        <v>0.9078263411619771</v>
       </c>
       <c r="M5">
-        <v>2.0527731181543951E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0002052773118154364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.26212485000000002</v>
+        <v>0.26212485</v>
       </c>
       <c r="C6">
-        <v>2.6212485000000005E-4</v>
+        <v>0.00026212485000000005</v>
       </c>
       <c r="D6">
-        <v>1.142100671017213E-2</v>
+        <v>0.011421006710172129</v>
       </c>
       <c r="E6">
-        <v>1.2588360593505119E-4</v>
+        <v>0.00012588360593505119</v>
       </c>
       <c r="F6">
-        <v>22.951116013839506</v>
+        <v>22.95111601383951</v>
       </c>
       <c r="G6">
-        <v>0.25210776215126618</v>
+        <v>0.2521077621512663</v>
       </c>
       <c r="H6">
-        <v>7.594810443984926</v>
+        <v>7.594810443984883</v>
       </c>
       <c r="I6">
-        <v>7.3463411661794167E-2</v>
+        <v>0.07346341166179327</v>
       </c>
       <c r="J6">
-        <v>-8.5080700629416892</v>
+        <v>-8.508070062941647</v>
       </c>
       <c r="K6">
-        <v>7.3580385869000009E-2</v>
+        <v>0.07358038586899913</v>
       </c>
       <c r="L6">
-        <v>0.90282927472052832</v>
+        <v>0.9028292747205289</v>
       </c>
       <c r="M6">
-        <v>2.3091327344280471E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0002309132734428094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -702,160 +688,160 @@
         <v>0.317987195</v>
       </c>
       <c r="C7">
-        <v>3.1798719500000002E-4</v>
+        <v>0.000317987195</v>
       </c>
       <c r="D7">
-        <v>1.3621715580827334E-2</v>
+        <v>0.01362171558082733</v>
       </c>
       <c r="E7">
-        <v>1.4980645957642986E-4</v>
+        <v>0.00014980645957642983</v>
       </c>
       <c r="F7">
-        <v>23.344137022473831</v>
+        <v>23.344137022473838</v>
       </c>
       <c r="G7">
-        <v>0.25585439719199249</v>
+        <v>0.2558543971919925</v>
       </c>
       <c r="H7">
-        <v>6.4762425572568247</v>
+        <v>6.476242557256825</v>
       </c>
       <c r="I7">
-        <v>6.1179379136929356E-2</v>
+        <v>0.061179379136929266</v>
       </c>
       <c r="J7">
-        <v>-7.3880250231094218</v>
+        <v>-7.388025023109422</v>
       </c>
       <c r="K7">
-        <v>6.1315978192839231E-2</v>
+        <v>0.06131597819283915</v>
       </c>
       <c r="L7">
-        <v>0.89936242443116821</v>
+        <v>0.8993624244311682</v>
       </c>
       <c r="M7">
-        <v>2.7228931127333019E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.00027228931127333116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.41768707500000002</v>
+        <v>0.417687075</v>
       </c>
       <c r="C8">
-        <v>4.1768707500000005E-4</v>
+        <v>0.00041768707500000005</v>
       </c>
       <c r="D8">
-        <v>1.7483542893361591E-2</v>
+        <v>0.01748354289336159</v>
       </c>
       <c r="E8">
-        <v>1.9154423313888708E-4</v>
+        <v>0.00019154423313888708</v>
       </c>
       <c r="F8">
-        <v>23.890299440315019</v>
+        <v>23.89029944031502</v>
       </c>
       <c r="G8">
-        <v>0.26081351651975249</v>
+        <v>0.2608135165197525</v>
       </c>
       <c r="H8">
         <v>4.479887336604321</v>
       </c>
       <c r="I8">
-        <v>3.9559631217091475E-2</v>
+        <v>0.039559631217091454</v>
       </c>
       <c r="J8">
         <v>-5.4015630341973715</v>
       </c>
       <c r="K8">
-        <v>3.9719130552497477E-2</v>
+        <v>0.039719130552497456</v>
       </c>
       <c r="L8">
-        <v>0.90556154100041386</v>
+        <v>0.9055615410004139</v>
       </c>
       <c r="M8">
-        <v>3.5656236070937881E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.00035656236070937854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.54869948000000002</v>
+        <v>0.54869948</v>
       </c>
       <c r="C9">
-        <v>5.4869948000000007E-4</v>
+        <v>0.0005486994800000001</v>
       </c>
       <c r="D9">
-        <v>2.2575232199362891E-2</v>
+        <v>0.022575232199362888</v>
       </c>
       <c r="E9">
-        <v>2.4612543789897883E-4</v>
+        <v>0.00024612543789897867</v>
       </c>
       <c r="F9">
-        <v>24.305374808746603</v>
+        <v>24.305374808746606</v>
       </c>
       <c r="G9">
-        <v>0.26396502484610468</v>
+        <v>0.2639650248461047</v>
       </c>
       <c r="H9">
-        <v>1.8565411631486128</v>
+        <v>1.8565411631486626</v>
       </c>
       <c r="I9">
-        <v>1.453578498977375E-2</v>
+        <v>0.01453578498977414</v>
       </c>
       <c r="J9">
-        <v>-2.8146293153028576</v>
+        <v>-2.8146293153029065</v>
       </c>
       <c r="K9">
-        <v>1.4539480125759055E-2</v>
+        <v>0.014539480125759455</v>
       </c>
       <c r="L9">
-        <v>0.93645908965190416</v>
+        <v>0.9364590896519032</v>
       </c>
       <c r="M9">
-        <v>5.039841995496283E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.0005039841995496233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.64131443600000004</v>
+        <v>0.641314436</v>
       </c>
       <c r="C10">
-        <v>6.4131443600000003E-4</v>
+        <v>0.000641314436</v>
       </c>
       <c r="D10">
-        <v>2.6292600795532584E-2</v>
+        <v>0.026292600795532573</v>
       </c>
       <c r="E10">
-        <v>2.8567128897955294E-4</v>
+        <v>0.00028567128897955283</v>
       </c>
       <c r="F10">
-        <v>24.391441568951475</v>
+        <v>24.391441568951482</v>
       </c>
       <c r="G10">
-        <v>0.26389030148051978</v>
+        <v>0.26389030148051984</v>
       </c>
       <c r="H10">
-        <v>2.0519609439233477E-3</v>
+        <v>0.0020519609439730857</v>
       </c>
       <c r="I10">
-        <v>1.6966248661445381E-2</v>
+        <v>0.01696624866144484</v>
       </c>
       <c r="J10">
-        <v>-1.0019980095539767</v>
+        <v>-1.001998009554025</v>
       </c>
       <c r="K10">
-        <v>1.6519821221079086E-2</v>
+        <v>0.016519821221078555</v>
       </c>
       <c r="L10">
-        <v>0.97365486633687903</v>
+        <v>0.9736548663368778</v>
       </c>
       <c r="M10">
-        <v>6.4427301728453622E-4</v>
+        <v>0.000644273017284531</v>
       </c>
     </row>
   </sheetData>

--- a/test/writer_output/Zimm-Lundberg Analysis.xlsx
+++ b/test/writer_output/Zimm-Lundberg Analysis.xlsx
@@ -486,34 +486,34 @@
         <v>6.8087235e-5</v>
       </c>
       <c r="D2">
-        <v>0.0032268088542369722</v>
+        <v>0.003226808854236977</v>
       </c>
       <c r="E2">
-        <v>3.587256863042699e-5</v>
+        <v>3.587256863042703e-5</v>
       </c>
       <c r="F2">
-        <v>21.100485983419137</v>
+        <v>21.100485983419105</v>
       </c>
       <c r="G2">
-        <v>0.23369462664814147</v>
+        <v>0.23369462664814106</v>
       </c>
       <c r="H2">
-        <v>11.480151185701061</v>
+        <v>11.480151185701175</v>
       </c>
       <c r="I2">
-        <v>0.11645410511167409</v>
+        <v>0.11645410511167481</v>
       </c>
       <c r="J2">
-        <v>-12.443106932207062</v>
+        <v>-12.443106932207176</v>
       </c>
       <c r="K2">
-        <v>0.11648899821958766</v>
+        <v>0.11648899821958839</v>
       </c>
       <c r="L2">
-        <v>0.9598484723769368</v>
+        <v>0.9598484723769364</v>
       </c>
       <c r="M2">
-        <v>7.684029438471932e-5</v>
+        <v>7.684029438472069e-5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -527,34 +527,34 @@
         <v>0.00012905162100000002</v>
       </c>
       <c r="D3">
-        <v>0.005929821112622263</v>
+        <v>0.005929821112622268</v>
       </c>
       <c r="E3">
-        <v>6.57325433586451e-5</v>
+        <v>6.573254335864513e-5</v>
       </c>
       <c r="F3">
-        <v>21.763155843824652</v>
+        <v>21.763155843824634</v>
       </c>
       <c r="G3">
-        <v>0.2403825820302972</v>
+        <v>0.24038258203029692</v>
       </c>
       <c r="H3">
-        <v>10.259421830109318</v>
+        <v>10.259421830109375</v>
       </c>
       <c r="I3">
-        <v>0.10291491169783408</v>
+        <v>0.10291491169783658</v>
       </c>
       <c r="J3">
-        <v>-11.198585293937837</v>
+        <v>-11.198585293937894</v>
       </c>
       <c r="K3">
-        <v>0.10297782848582437</v>
+        <v>0.10297782848582684</v>
       </c>
       <c r="L3">
-        <v>0.9335943924925062</v>
+        <v>0.9335943924925059</v>
       </c>
       <c r="M3">
-        <v>0.00013162243368319357</v>
+        <v>0.0001316224336831832</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -571,31 +571,31 @@
         <v>0.008296039814318963</v>
       </c>
       <c r="E4">
-        <v>9.173447446971228e-5</v>
+        <v>9.173447446971231e-5</v>
       </c>
       <c r="F4">
         <v>22.30630832805272</v>
       </c>
       <c r="G4">
-        <v>0.2457975315469665</v>
+        <v>0.24579753154696657</v>
       </c>
       <c r="H4">
-        <v>9.13804951145228</v>
+        <v>9.138049511452323</v>
       </c>
       <c r="I4">
-        <v>0.09049866389527907</v>
+        <v>0.09049866389527943</v>
       </c>
       <c r="J4">
-        <v>-10.062239888880054</v>
+        <v>-10.062239888880097</v>
       </c>
       <c r="K4">
-        <v>0.09058539978462413</v>
+        <v>0.09058539978462447</v>
       </c>
       <c r="L4">
-        <v>0.9165232572606227</v>
+        <v>0.9165232572606223</v>
       </c>
       <c r="M4">
-        <v>0.00017513807868122495</v>
+        <v>0.00017513807868122611</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -609,34 +609,34 @@
         <v>0.000226470588</v>
       </c>
       <c r="D5">
-        <v>0.009990937480477179</v>
+        <v>0.009990937480477184</v>
       </c>
       <c r="E5">
-        <v>0.0001102825195244411</v>
+        <v>0.00011028251952444114</v>
       </c>
       <c r="F5">
-        <v>22.667601357984225</v>
+        <v>22.667601357984214</v>
       </c>
       <c r="G5">
-        <v>0.24935299739643849</v>
+        <v>0.24935299739643835</v>
       </c>
       <c r="H5">
-        <v>8.308738806608915</v>
+        <v>8.308738806608943</v>
       </c>
       <c r="I5">
         <v>0.08133472392510059</v>
       </c>
       <c r="J5">
-        <v>-9.22572671665047</v>
+        <v>-9.225726716650499</v>
       </c>
       <c r="K5">
         <v>0.08143808270299328</v>
       </c>
       <c r="L5">
-        <v>0.9078263411619771</v>
+        <v>0.9078263411619768</v>
       </c>
       <c r="M5">
-        <v>0.0002052773118154364</v>
+        <v>0.0002052773118154395</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -650,34 +650,34 @@
         <v>0.00026212485000000005</v>
       </c>
       <c r="D6">
-        <v>0.011421006710172129</v>
+        <v>0.01142100671017213</v>
       </c>
       <c r="E6">
         <v>0.00012588360593505119</v>
       </c>
       <c r="F6">
-        <v>22.95111601383951</v>
+        <v>22.951116013839506</v>
       </c>
       <c r="G6">
-        <v>0.2521077621512663</v>
+        <v>0.2521077621512662</v>
       </c>
       <c r="H6">
-        <v>7.594810443984883</v>
+        <v>7.594810443984926</v>
       </c>
       <c r="I6">
-        <v>0.07346341166179327</v>
+        <v>0.07346341166179417</v>
       </c>
       <c r="J6">
-        <v>-8.508070062941647</v>
+        <v>-8.50807006294169</v>
       </c>
       <c r="K6">
-        <v>0.07358038586899913</v>
+        <v>0.07358038586900001</v>
       </c>
       <c r="L6">
-        <v>0.9028292747205289</v>
+        <v>0.9028292747205283</v>
       </c>
       <c r="M6">
-        <v>0.0002309132734428094</v>
+        <v>0.0002309132734428047</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -691,13 +691,13 @@
         <v>0.000317987195</v>
       </c>
       <c r="D7">
-        <v>0.01362171558082733</v>
+        <v>0.013621715580827334</v>
       </c>
       <c r="E7">
-        <v>0.00014980645957642983</v>
+        <v>0.00014980645957642986</v>
       </c>
       <c r="F7">
-        <v>23.344137022473838</v>
+        <v>23.34413702247383</v>
       </c>
       <c r="G7">
         <v>0.2558543971919925</v>
@@ -706,19 +706,19 @@
         <v>6.476242557256825</v>
       </c>
       <c r="I7">
-        <v>0.061179379136929266</v>
+        <v>0.061179379136929356</v>
       </c>
       <c r="J7">
         <v>-7.388025023109422</v>
       </c>
       <c r="K7">
-        <v>0.06131597819283915</v>
+        <v>0.06131597819283923</v>
       </c>
       <c r="L7">
         <v>0.8993624244311682</v>
       </c>
       <c r="M7">
-        <v>0.00027228931127333116</v>
+        <v>0.0002722893112733302</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -747,19 +747,19 @@
         <v>4.479887336604321</v>
       </c>
       <c r="I8">
-        <v>0.039559631217091454</v>
+        <v>0.039559631217091475</v>
       </c>
       <c r="J8">
         <v>-5.4015630341973715</v>
       </c>
       <c r="K8">
-        <v>0.039719130552497456</v>
+        <v>0.03971913055249748</v>
       </c>
       <c r="L8">
         <v>0.9055615410004139</v>
       </c>
       <c r="M8">
-        <v>0.00035656236070937854</v>
+        <v>0.0003565623607093788</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -773,34 +773,34 @@
         <v>0.0005486994800000001</v>
       </c>
       <c r="D9">
-        <v>0.022575232199362888</v>
+        <v>0.02257523219936289</v>
       </c>
       <c r="E9">
-        <v>0.00024612543789897867</v>
+        <v>0.00024612543789897883</v>
       </c>
       <c r="F9">
-        <v>24.305374808746606</v>
+        <v>24.305374808746603</v>
       </c>
       <c r="G9">
         <v>0.2639650248461047</v>
       </c>
       <c r="H9">
-        <v>1.8565411631486626</v>
+        <v>1.8565411631486128</v>
       </c>
       <c r="I9">
-        <v>0.01453578498977414</v>
+        <v>0.01453578498977375</v>
       </c>
       <c r="J9">
-        <v>-2.8146293153029065</v>
+        <v>-2.8146293153028576</v>
       </c>
       <c r="K9">
-        <v>0.014539480125759455</v>
+        <v>0.014539480125759055</v>
       </c>
       <c r="L9">
-        <v>0.9364590896519032</v>
+        <v>0.9364590896519042</v>
       </c>
       <c r="M9">
-        <v>0.0005039841995496233</v>
+        <v>0.0005039841995496283</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -814,34 +814,34 @@
         <v>0.000641314436</v>
       </c>
       <c r="D10">
-        <v>0.026292600795532573</v>
+        <v>0.026292600795532584</v>
       </c>
       <c r="E10">
-        <v>0.00028567128897955283</v>
+        <v>0.00028567128897955294</v>
       </c>
       <c r="F10">
-        <v>24.391441568951482</v>
+        <v>24.391441568951475</v>
       </c>
       <c r="G10">
-        <v>0.26389030148051984</v>
+        <v>0.2638903014805198</v>
       </c>
       <c r="H10">
-        <v>0.0020519609439730857</v>
+        <v>0.0020519609439233477</v>
       </c>
       <c r="I10">
-        <v>0.01696624866144484</v>
+        <v>0.01696624866144538</v>
       </c>
       <c r="J10">
-        <v>-1.001998009554025</v>
+        <v>-1.0019980095539767</v>
       </c>
       <c r="K10">
-        <v>0.016519821221078555</v>
+        <v>0.016519821221079086</v>
       </c>
       <c r="L10">
-        <v>0.9736548663368778</v>
+        <v>0.973654866336879</v>
       </c>
       <c r="M10">
-        <v>0.000644273017284531</v>
+        <v>0.0006442730172845362</v>
       </c>
     </row>
   </sheetData>
